--- a/Data/Don_hang.xlsx
+++ b/Data/Don_hang.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="307">
   <si>
     <t>Số hóa đơn</t>
   </si>
@@ -743,9 +743,6 @@
     <t>INV975978</t>
   </si>
   <si>
-    <t>27/08/2023</t>
-  </si>
-  <si>
     <t>21/11/2022</t>
   </si>
   <si>
@@ -857,9 +854,6 @@
     <t>INV266927</t>
   </si>
   <si>
-    <t>05/09/2022</t>
-  </si>
-  <si>
     <t>26/11/2023</t>
   </si>
   <si>
@@ -945,6 +939,12 @@
   </si>
   <si>
     <t>Tổng tiền</t>
+  </si>
+  <si>
+    <t>30/01/2025</t>
+  </si>
+  <si>
+    <t>27/08/2025</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1056,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1091,6 +1091,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1309,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1362,7 +1368,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1372,8 +1378,8 @@
       <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
+      <c r="C2" s="13" t="s">
+        <v>305</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
@@ -1410,8 +1416,8 @@
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
+      <c r="C3" s="13" t="s">
+        <v>305</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -1448,8 +1454,8 @@
       <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
+      <c r="C4" s="13" t="s">
+        <v>305</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>13</v>
@@ -1486,8 +1492,8 @@
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
+      <c r="C5" s="13" t="s">
+        <v>305</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>13</v>
@@ -2930,23 +2936,23 @@
       <c r="B43" s="4">
         <v>0</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>120</v>
@@ -2963,31 +2969,31 @@
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B44" s="4">
         <v>0</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="I44" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="J44" s="3">
         <v>1</v>
@@ -3001,28 +3007,28 @@
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B45" s="4">
         <v>0</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>190</v>
@@ -3039,31 +3045,31 @@
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B46" s="4">
         <v>0</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="I46" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="J46" s="3">
         <v>5</v>
@@ -3077,31 +3083,31 @@
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B47" s="4">
         <v>0</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="I47" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="J47" s="3">
         <v>7</v>
@@ -3115,31 +3121,31 @@
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B48" s="4">
         <v>0</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="14">
+        <v>45786</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="I48" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="J48" s="3">
         <v>9</v>
@@ -3153,28 +3159,28 @@
     </row>
     <row r="49" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B49" s="4">
         <v>0</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>198</v>
@@ -3191,31 +3197,31 @@
     </row>
     <row r="50" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B50" s="4">
         <v>0</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="I50" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="J50" s="3">
         <v>8</v>
@@ -3229,31 +3235,31 @@
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B51" s="4">
         <v>0</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>305</v>
-      </c>
       <c r="I51" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J51" s="3">
         <v>8</v>

--- a/Data/Don_hang.xlsx
+++ b/Data/Don_hang.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="313">
   <si>
     <t>Số hóa đơn</t>
   </si>
@@ -62,24 +62,15 @@
     <t>INV206300</t>
   </si>
   <si>
-    <t>30/01/2020</t>
-  </si>
-  <si>
     <t>10/03/2021</t>
   </si>
   <si>
-    <t>Trịnh Tiến Đạt Khoa</t>
-  </si>
-  <si>
     <t>585 Trường Chinh Phương Đông Hưng Thuận Thành phố Hồ Chí Minh</t>
   </si>
   <si>
     <t>0813849476</t>
   </si>
   <si>
-    <t>khoatrinhtiendat@gmail.com</t>
-  </si>
-  <si>
     <t>Gấu bông Lena cosplay Losto</t>
   </si>
   <si>
@@ -866,9 +857,6 @@
     <t>096-800-5945x06228</t>
   </si>
   <si>
-    <t>bjohnson@hotmail.com</t>
-  </si>
-  <si>
     <t>Gấu bông heo ôm bình sữa</t>
   </si>
   <si>
@@ -941,17 +929,47 @@
     <t>Tổng tiền</t>
   </si>
   <si>
-    <t>30/01/2025</t>
-  </si>
-  <si>
     <t>27/08/2025</t>
+  </si>
+  <si>
+    <t>Võ Thị Huyền Trang</t>
+  </si>
+  <si>
+    <t>14/08/2025</t>
+  </si>
+  <si>
+    <t>21/03/2025</t>
+  </si>
+  <si>
+    <t>18/08/2025</t>
+  </si>
+  <si>
+    <t>vothihuyentrang2816@gmail.com</t>
+  </si>
+  <si>
+    <t>24/08/2025</t>
+  </si>
+  <si>
+    <t>INV328055</t>
+  </si>
+  <si>
+    <t>INV328056</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Minh Hiếu</t>
+  </si>
+  <si>
+    <t>hieuminhtk@gmail.com</t>
+  </si>
+  <si>
+    <t>bjohnson@hotmail.come</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -988,6 +1006,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1053,10 +1078,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1098,8 +1124,16 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1315,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1368,7 +1402,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1378,26 +1412,26 @@
       <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>305</v>
+      <c r="C2" s="15">
+        <v>45786</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
@@ -1416,26 +1450,26 @@
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>305</v>
+      <c r="C3" s="15">
+        <v>45786</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="J3" s="3">
         <v>10</v>
@@ -1454,26 +1488,26 @@
       <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>305</v>
+      <c r="C4" s="15">
+        <v>45786</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="G4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>311</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J4" s="3">
         <v>2</v>
@@ -1492,26 +1526,26 @@
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>305</v>
+      <c r="C5" s="15">
+        <v>45786</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="G5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>311</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J5" s="3">
         <v>8</v>
@@ -1530,26 +1564,26 @@
       <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="15">
+        <v>45786</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="G6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>311</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J6" s="3">
         <v>2</v>
@@ -1568,26 +1602,26 @@
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="15">
+        <v>45786</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="G7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>311</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J7" s="3">
         <v>7</v>
@@ -1606,26 +1640,26 @@
       <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="15">
+        <v>45786</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="G8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>311</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J8" s="3">
         <v>4</v>
@@ -1644,26 +1678,26 @@
       <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="15">
+        <v>45786</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="G9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>311</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J9" s="3">
         <v>1</v>
@@ -1682,26 +1716,26 @@
       <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="15">
+        <v>45786</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="G10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>311</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J10" s="3">
         <v>8</v>
@@ -1720,26 +1754,26 @@
       <c r="B11" s="4">
         <v>1</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="15">
+        <v>45786</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="G11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>101</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J11" s="3">
         <v>5</v>
@@ -1753,31 +1787,31 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="I12" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="J12" s="3">
         <v>8</v>
@@ -1791,31 +1825,31 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B13" s="4">
         <v>0</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="I13" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="J13" s="3">
         <v>9</v>
@@ -1829,31 +1863,31 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B14" s="4">
         <v>0</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="I14" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J14" s="3">
         <v>9</v>
@@ -1867,31 +1901,31 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B15" s="4">
         <v>0</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="I15" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="J15" s="3">
         <v>7</v>
@@ -1905,31 +1939,31 @@
     </row>
     <row r="16" spans="1:12" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="I16" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J16" s="3">
         <v>5</v>
@@ -1943,31 +1977,31 @@
     </row>
     <row r="17" spans="1:12" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="G17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="I17" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J17" s="3">
         <v>4</v>
@@ -1981,31 +2015,31 @@
     </row>
     <row r="18" spans="1:12" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="G18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="I18" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J18" s="3">
         <v>8</v>
@@ -2019,31 +2053,31 @@
     </row>
     <row r="19" spans="1:12" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="G19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="I19" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J19" s="3">
         <v>2</v>
@@ -2057,31 +2091,31 @@
     </row>
     <row r="20" spans="1:12" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B20" s="4">
         <v>0</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="I20" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="J20" s="3">
         <v>10</v>
@@ -2095,31 +2129,31 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B21" s="4">
         <v>0</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="I21" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="J21" s="3">
         <v>10</v>
@@ -2133,31 +2167,31 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B22" s="4">
         <v>0</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="I22" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="J22" s="3">
         <v>10</v>
@@ -2171,31 +2205,31 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="H23" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="I23" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J23" s="3">
         <v>4</v>
@@ -2209,31 +2243,31 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B24" s="4">
         <v>0</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="I24" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="J24" s="3">
         <v>2</v>
@@ -2247,31 +2281,31 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="H25" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="I25" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="J25" s="3">
         <v>8</v>
@@ -2285,31 +2319,31 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B26" s="4">
         <v>0</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="I26" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="J26" s="3">
         <v>10</v>
@@ -2323,31 +2357,31 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="H27" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="I27" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="J27" s="3">
         <v>6</v>
@@ -2361,31 +2395,31 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B28" s="4">
         <v>0</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="I28" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="J28" s="3">
         <v>9</v>
@@ -2399,31 +2433,31 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B29" s="4">
         <v>0</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="I29" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="J29" s="3">
         <v>10</v>
@@ -2437,31 +2471,31 @@
     </row>
     <row r="30" spans="1:12" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B30" s="4">
         <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>158</v>
-      </c>
       <c r="I30" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J30" s="3">
         <v>2</v>
@@ -2475,31 +2509,31 @@
     </row>
     <row r="31" spans="1:12" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B31" s="4">
         <v>1</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>158</v>
-      </c>
       <c r="I31" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J31" s="3">
         <v>8</v>
@@ -2513,31 +2547,31 @@
     </row>
     <row r="32" spans="1:12" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B32" s="4">
         <v>1</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="H32" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>158</v>
-      </c>
       <c r="I32" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J32" s="3">
         <v>1</v>
@@ -2551,31 +2585,31 @@
     </row>
     <row r="33" spans="1:12" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B33" s="4">
         <v>0</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="I33" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J33" s="3">
         <v>9</v>
@@ -2589,31 +2623,31 @@
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B34" s="4">
         <v>0</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="I34" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="J34" s="3">
         <v>9</v>
@@ -2627,31 +2661,31 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B35" s="4">
         <v>0</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>182</v>
-      </c>
       <c r="I35" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J35" s="3">
         <v>2</v>
@@ -2665,31 +2699,31 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B36" s="4">
         <v>0</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="I36" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="J36" s="3">
         <v>4</v>
@@ -2703,31 +2737,31 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B37" s="4">
         <v>0</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="I37" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="J37" s="3">
         <v>9</v>
@@ -2741,31 +2775,31 @@
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B38" s="4">
         <v>0</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="I38" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="J38" s="3">
         <v>3</v>
@@ -2779,31 +2813,31 @@
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B39" s="4">
         <v>0</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="I39" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="J39" s="3">
         <v>3</v>
@@ -2817,31 +2851,31 @@
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B40" s="4">
         <v>0</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E40" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="I40" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="J40" s="3">
         <v>7</v>
@@ -2855,31 +2889,31 @@
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B41" s="4">
         <v>0</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="I41" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="J41" s="3">
         <v>7</v>
@@ -2893,31 +2927,31 @@
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B42" s="4">
         <v>0</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="I42" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="J42" s="3">
         <v>2</v>
@@ -2931,31 +2965,31 @@
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B43" s="4">
         <v>0</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>243</v>
-      </c>
       <c r="I43" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J43" s="3">
         <v>10</v>
@@ -2969,31 +3003,31 @@
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B44" s="4">
         <v>0</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="I44" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="J44" s="3">
         <v>1</v>
@@ -3007,31 +3041,31 @@
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B45" s="4">
         <v>0</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>258</v>
-      </c>
       <c r="I45" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J45" s="3">
         <v>1</v>
@@ -3045,31 +3079,31 @@
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B46" s="4">
         <v>0</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="I46" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="J46" s="3">
         <v>5</v>
@@ -3083,31 +3117,31 @@
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B47" s="4">
         <v>0</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="I47" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="J47" s="3">
         <v>7</v>
@@ -3121,7 +3155,7 @@
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B48" s="4">
         <v>0</v>
@@ -3130,22 +3164,22 @@
         <v>45786</v>
       </c>
       <c r="D48" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="H48" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="I48" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="J48" s="3">
         <v>9</v>
@@ -3159,31 +3193,31 @@
     </row>
     <row r="49" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B49" s="4">
         <v>0</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="I49" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J49" s="3">
         <v>4</v>
@@ -3197,31 +3231,31 @@
     </row>
     <row r="50" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B50" s="4">
         <v>0</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="I50" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="J50" s="3">
         <v>8</v>
@@ -3235,31 +3269,31 @@
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B51" s="4">
         <v>0</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>303</v>
-      </c>
       <c r="I51" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="J51" s="3">
         <v>8</v>
@@ -3271,33 +3305,81 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-    </row>
-    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="9"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
+    <row r="52" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J52" s="5">
+        <v>9</v>
+      </c>
+      <c r="K52" s="8">
+        <v>80000</v>
+      </c>
+      <c r="L52" s="12">
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J53" s="5">
+        <v>9</v>
+      </c>
+      <c r="K53" s="8">
+        <v>80000</v>
+      </c>
+      <c r="L53" s="12">
+        <v>720000</v>
+      </c>
     </row>
     <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
@@ -16558,7 +16640,15 @@
       <c r="L1000" s="9"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3:H10" r:id="rId2" display="hieuminhtk@gmail.com"/>
+    <hyperlink ref="H53" r:id="rId3"/>
+    <hyperlink ref="H52" r:id="rId4"/>
+    <hyperlink ref="H11" r:id="rId5"/>
+    <hyperlink ref="H48" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId7"/>
 </worksheet>
 </file>